--- a/r5-ELGA-MOPED-160-LKF-Profile-erstellen/ValueSet-moped-transportart-valueset.xlsx
+++ b/r5-ELGA-MOPED-160-LKF-Profile-erstellen/ValueSet-moped-transportart-valueset.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-16T09:30:10+00:00</t>
+    <t>2024-10-24T07:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
